--- a/static/employee_template.xlsx
+++ b/static/employee_template.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\datbui\Desktop\LnD Dashboard\employee_form\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\employee_form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB2004-71FC-4259-96D6-E120BE1CE8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -232,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -591,26 +597,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="33" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="2" max="2" width="9.73046875" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" customWidth="1"/>
+    <col min="4" max="4" width="28.1328125" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="8" max="33" width="20.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -725,12 +731,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -740,25 +746,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet2!$D$2:$D$8</xm:f>
           </x14:formula1>
           <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$22</xm:f>
           </x14:formula1>
           <xm:sqref>G2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$6</xm:f>
           </x14:formula1>
@@ -771,22 +777,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="3" max="3" width="27.86328125" customWidth="1"/>
+    <col min="4" max="4" width="36.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>34</v>
       </c>
@@ -800,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>37</v>
       </c>
@@ -814,7 +820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -828,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>35</v>
       </c>
@@ -842,7 +848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>39</v>
       </c>
@@ -856,7 +862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>38</v>
       </c>
@@ -867,7 +873,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>36</v>
       </c>
@@ -878,72 +884,72 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C16" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C22" s="2" t="s">
         <v>61</v>
       </c>

--- a/static/employee_template.xlsx
+++ b/static/employee_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\employee_form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEB2004-71FC-4259-96D6-E120BE1CE8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0776DA9-BC9B-4A09-AFDD-15BBF49AC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -226,13 +226,34 @@
     <t>System Department</t>
   </si>
   <si>
-    <t>Talent Acquisition</t>
-  </si>
-  <si>
     <t>Network Management Department</t>
   </si>
   <si>
     <t>Institutional Business Department</t>
+  </si>
+  <si>
+    <t>No Department</t>
+  </si>
+  <si>
+    <t>Talent Acquisition Department</t>
+  </si>
+  <si>
+    <t>Total Rewards Department</t>
+  </si>
+  <si>
+    <t>Learning &amp; Development Department</t>
+  </si>
+  <si>
+    <t>Employee Engagement &amp; Employer Branding Department</t>
+  </si>
+  <si>
+    <t>Settlement &amp; Margin Department</t>
+  </si>
+  <si>
+    <t>Depository Trading Department</t>
+  </si>
+  <si>
+    <t>Business Support Department</t>
   </si>
 </sst>
 </file>
@@ -600,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -750,25 +771,25 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$8</xm:f>
           </x14:formula1>
-          <xm:sqref>E2</xm:sqref>
+          <xm:sqref>E2:E100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$D$2:$D$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CBCC7BD9-C620-402D-B5D0-49F765AC353A}">
           <x14:formula1>
             <xm:f>Sheet2!$C$2:$C$22</xm:f>
           </x14:formula1>
-          <xm:sqref>G2</xm:sqref>
+          <xm:sqref>G2:G100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sheet2!$E$2:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:AG2</xm:sqref>
+          <xm:sqref>H2:AG2 H3:AF100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE220895-8907-48C2-B791-FD391F681FD7}">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$2:$D$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -781,14 +802,14 @@
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="21.59765625" customWidth="1"/>
     <col min="3" max="3" width="27.86328125" customWidth="1"/>
-    <col min="4" max="4" width="36.59765625" customWidth="1"/>
+    <col min="4" max="4" width="46.53125" customWidth="1"/>
     <col min="5" max="5" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -800,7 +821,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -814,7 +835,7 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -828,7 +849,7 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -856,7 +877,7 @@
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -870,7 +891,7 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
@@ -881,42 +902,63 @@
         <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C13" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C15" s="2" t="s">
         <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">

--- a/static/employee_template.xlsx
+++ b/static/employee_template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\employee_form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0776DA9-BC9B-4A09-AFDD-15BBF49AC987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA61B0D-5F2A-480F-9917-5312B7FB1250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -622,7 +622,7 @@
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -802,7 +802,7 @@
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/static/employee_template.xlsx
+++ b/static/employee_template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\employee_form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA61B0D-5F2A-480F-9917-5312B7FB1250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC473C2-CF77-4A72-8DBA-BCBD0041A7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -766,7 +766,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$8</xm:f>
@@ -778,12 +778,6 @@
             <xm:f>Sheet2!$C$2:$C$22</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G100</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:AG2 H3:AF100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE220895-8907-48C2-B791-FD391F681FD7}">
           <x14:formula1>
@@ -802,7 +796,7 @@
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/static/employee_template.xlsx
+++ b/static/employee_template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\employee_form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA61B0D-5F2A-480F-9917-5312B7FB1250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A5871F-5569-420F-9516-E57C9791CD82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -621,13 +621,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="9.73046875" customWidth="1"/>
     <col min="3" max="3" width="11.73046875" customWidth="1"/>
     <col min="4" max="4" width="28.1328125" customWidth="1"/>
@@ -766,7 +766,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$8</xm:f>
@@ -778,12 +778,6 @@
             <xm:f>Sheet2!$C$2:$C$22</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G100</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>Sheet2!$E$2:$E$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>H2:AG2 H3:AF100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE220895-8907-48C2-B791-FD391F681FD7}">
           <x14:formula1>

--- a/static/employee_template.xlsx
+++ b/static/employee_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\employee_form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC473C2-CF77-4A72-8DBA-BCBD0041A7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E040C8A-8053-4B0F-A73C-FE448FF52709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -755,11 +755,6 @@
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/static/employee_template.xlsx
+++ b/static/employee_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\employee_form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E040C8A-8053-4B0F-A73C-FE448FF52709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC71899D-405B-4668-8674-6596A0BA7B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -157,24 +157,12 @@
     <t>Advisory Division</t>
   </si>
   <si>
-    <t>BOM 1</t>
-  </si>
-  <si>
-    <t>BOM 2</t>
-  </si>
-  <si>
     <t>Brokerage Division</t>
   </si>
   <si>
-    <t>Company Secretariat</t>
-  </si>
-  <si>
     <t>Covered Warrant Division</t>
   </si>
   <si>
-    <t>Customer Care Center</t>
-  </si>
-  <si>
     <t>Dealing Division</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>General Affairs Division</t>
   </si>
   <si>
-    <t>Human Resources Division</t>
-  </si>
-  <si>
     <t>Internal Control Division</t>
   </si>
   <si>
@@ -254,6 +239,45 @@
   </si>
   <si>
     <t>Business Support Department</t>
+  </si>
+  <si>
+    <t>Office Assistant Division</t>
+  </si>
+  <si>
+    <t>Company Secretariat Division</t>
+  </si>
+  <si>
+    <t>Internal Audit Division</t>
+  </si>
+  <si>
+    <t>People &amp; Workplace Division</t>
+  </si>
+  <si>
+    <t>Customer Care Department</t>
+  </si>
+  <si>
+    <t>Business Analysis(Function)</t>
+  </si>
+  <si>
+    <t>Workplace(Receptionist)</t>
+  </si>
+  <si>
+    <t>Consultant(Function)</t>
+  </si>
+  <si>
+    <t>Margin &amp; Settlement(Financial Product)</t>
+  </si>
+  <si>
+    <t>Margin &amp; Settlement (Operation)</t>
+  </si>
+  <si>
+    <t>Data Engineer(Function)</t>
+  </si>
+  <si>
+    <t>Workplace(Purchasing)</t>
+  </si>
+  <si>
+    <t>Workplace(General)</t>
   </si>
 </sst>
 </file>
@@ -309,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -317,6 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,7 +647,7 @@
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -770,13 +795,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CBCC7BD9-C620-402D-B5D0-49F765AC353A}">
           <x14:formula1>
-            <xm:f>Sheet2!$C$2:$C$22</xm:f>
+            <xm:f>Sheet2!$C$2:$C$21</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EE220895-8907-48C2-B791-FD391F681FD7}">
           <x14:formula1>
-            <xm:f>Sheet2!$D$2:$D$15</xm:f>
+            <xm:f>Sheet2!$D$2:$D$60</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F100</xm:sqref>
         </x14:dataValidation>
@@ -788,10 +813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -810,7 +835,7 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -823,8 +848,8 @@
       <c r="C3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>62</v>
+      <c r="D3" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -835,10 +860,10 @@
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -849,10 +874,10 @@
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>67</v>
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -863,10 +888,10 @@
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -877,10 +902,10 @@
         <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
@@ -888,101 +913,194 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
+        <v>73</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
+        <v>48</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
+        <v>50</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="2" t="s">
+      <c r="D20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C18" s="2" t="s">
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D22" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.45">
+      <c r="D24" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C19" s="2" t="s">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C20" s="2" t="s">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C21" s="2" t="s">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C22" s="2" t="s">
-        <v>61</v>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D60" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/static/employee_template.xlsx
+++ b/static/employee_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\employee_form\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC71899D-405B-4668-8674-6596A0BA7B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD495D4-E88B-4BE7-892D-FAF922449C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,7 +647,7 @@
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
